--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H2">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I2">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J2">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N2">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O2">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P2">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q2">
-        <v>31.22759326358222</v>
+        <v>47.02541866805689</v>
       </c>
       <c r="R2">
-        <v>281.0483393722399</v>
+        <v>423.228768012512</v>
       </c>
       <c r="S2">
-        <v>0.009479485353074524</v>
+        <v>0.009652916630034142</v>
       </c>
       <c r="T2">
-        <v>0.01043226855831992</v>
+        <v>0.01065543914759961</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H3">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I3">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J3">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>14.827407</v>
       </c>
       <c r="O3">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P3">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q3">
-        <v>61.38853260575932</v>
+        <v>88.64974840881132</v>
       </c>
       <c r="R3">
-        <v>552.4967934518339</v>
+        <v>797.847735679302</v>
       </c>
       <c r="S3">
-        <v>0.01863517597309317</v>
+        <v>0.01819715070915533</v>
       </c>
       <c r="T3">
-        <v>0.0205081977704418</v>
+        <v>0.02008705135169264</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H4">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I4">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J4">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N4">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O4">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P4">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q4">
-        <v>101.7649356214431</v>
+        <v>199.0491308102562</v>
       </c>
       <c r="R4">
-        <v>915.8844205929877</v>
+        <v>1791.442177292306</v>
       </c>
       <c r="S4">
-        <v>0.03089188489607541</v>
+        <v>0.04085885292281986</v>
       </c>
       <c r="T4">
-        <v>0.03399682867847266</v>
+        <v>0.04510232892773771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H5">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I5">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J5">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N5">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O5">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P5">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q5">
-        <v>18.65048726723967</v>
+        <v>8.816754814893665</v>
       </c>
       <c r="R5">
-        <v>111.902923603438</v>
+        <v>52.900528889362</v>
       </c>
       <c r="S5">
-        <v>0.0056615640976624</v>
+        <v>0.001809816937013936</v>
       </c>
       <c r="T5">
-        <v>0.004153738656132157</v>
+        <v>0.001331852674154153</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.42062066666666</v>
+        <v>17.93632866666666</v>
       </c>
       <c r="H6">
-        <v>37.26186199999999</v>
+        <v>53.808986</v>
       </c>
       <c r="I6">
-        <v>0.09248309627941087</v>
+        <v>0.1226979812530711</v>
       </c>
       <c r="J6">
-        <v>0.09970170425017692</v>
+        <v>0.1347750935001359</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N6">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O6">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P6">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q6">
-        <v>91.62892665834109</v>
+        <v>254.1978649012366</v>
       </c>
       <c r="R6">
-        <v>824.6603399250698</v>
+        <v>2287.78078411113</v>
       </c>
       <c r="S6">
-        <v>0.02781498595950538</v>
+        <v>0.05217924405404788</v>
       </c>
       <c r="T6">
-        <v>0.03061067058681037</v>
+        <v>0.05759842139895176</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>172.32992</v>
       </c>
       <c r="I7">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J7">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N7">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O7">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P7">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q7">
-        <v>144.4224297998222</v>
+        <v>150.6047082365156</v>
       </c>
       <c r="R7">
-        <v>1299.8018681984</v>
+        <v>1355.44237412864</v>
       </c>
       <c r="S7">
-        <v>0.04384104456552668</v>
+        <v>0.03091465709129798</v>
       </c>
       <c r="T7">
-        <v>0.04824750856717219</v>
+        <v>0.03412535920804582</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>172.32992</v>
       </c>
       <c r="I8">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J8">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>14.827407</v>
       </c>
       <c r="O8">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P8">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q8">
         <v>283.9117624574934</v>
@@ -948,10 +948,10 @@
         <v>2555.205862117441</v>
       </c>
       <c r="S8">
-        <v>0.08618459229517485</v>
+        <v>0.05827862145435488</v>
       </c>
       <c r="T8">
-        <v>0.09484700687057494</v>
+        <v>0.06433126155681665</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>172.32992</v>
       </c>
       <c r="I9">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J9">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N9">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O9">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P9">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q9">
-        <v>470.6459171162311</v>
+        <v>637.4794126133689</v>
       </c>
       <c r="R9">
-        <v>4235.81325404608</v>
+        <v>5737.31471352032</v>
       </c>
       <c r="S9">
-        <v>0.1428698343842797</v>
+        <v>0.1308555202188964</v>
       </c>
       <c r="T9">
-        <v>0.1572296834338257</v>
+        <v>0.1444457759514503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>172.32992</v>
       </c>
       <c r="I10">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J10">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N10">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O10">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P10">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q10">
-        <v>86.25540448634668</v>
+        <v>28.23674566010667</v>
       </c>
       <c r="R10">
-        <v>517.5324269180801</v>
+        <v>169.42047396064</v>
       </c>
       <c r="S10">
-        <v>0.02618379317772777</v>
+        <v>0.005796162149761689</v>
       </c>
       <c r="T10">
-        <v>0.01921035106383471</v>
+        <v>0.004265422596678765</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>172.32992</v>
       </c>
       <c r="I11">
-        <v>0.4277189525092218</v>
+        <v>0.3929554311523962</v>
       </c>
       <c r="J11">
-        <v>0.4611038148683137</v>
+        <v>0.4316338739568692</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N11">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O11">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P11">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q11">
-        <v>423.7685599479111</v>
+        <v>814.1000412570668</v>
       </c>
       <c r="R11">
-        <v>3813.9170395312</v>
+        <v>7326.900371313601</v>
       </c>
       <c r="S11">
-        <v>0.1286396880865129</v>
+        <v>0.1671104702380853</v>
       </c>
       <c r="T11">
-        <v>0.1415692649329061</v>
+        <v>0.1844660546438776</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H12">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I12">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J12">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N12">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O12">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P12">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q12">
-        <v>41.80005417120888</v>
+        <v>25.23813775527111</v>
       </c>
       <c r="R12">
-        <v>376.20048754088</v>
+        <v>227.14323979744</v>
       </c>
       <c r="S12">
-        <v>0.01268887416103876</v>
+        <v>0.00518063733506821</v>
       </c>
       <c r="T12">
-        <v>0.01396423308020085</v>
+        <v>0.005718682548013125</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H13">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I13">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J13">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>14.827407</v>
       </c>
       <c r="O13">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P13">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q13">
-        <v>82.17232646629533</v>
+        <v>47.57755753552667</v>
       </c>
       <c r="R13">
-        <v>739.5509381966581</v>
+        <v>428.19801781974</v>
       </c>
       <c r="S13">
-        <v>0.02494432915756341</v>
+        <v>0.009766254280327251</v>
       </c>
       <c r="T13">
-        <v>0.02745148402960836</v>
+        <v>0.01078054770101575</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H14">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I14">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J14">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N14">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O14">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P14">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q14">
-        <v>136.2186251691284</v>
+        <v>106.8279565763578</v>
       </c>
       <c r="R14">
-        <v>1225.967626522156</v>
+        <v>961.4516091872199</v>
       </c>
       <c r="S14">
-        <v>0.04135068787425901</v>
+        <v>0.02192859495558212</v>
       </c>
       <c r="T14">
-        <v>0.04550684609008032</v>
+        <v>0.02420603203124717</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H15">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I15">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J15">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N15">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O15">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P15">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q15">
-        <v>24.96482426646767</v>
+        <v>4.731876480323334</v>
       </c>
       <c r="R15">
-        <v>149.788945598806</v>
+        <v>28.39125888194</v>
       </c>
       <c r="S15">
-        <v>0.007578351747396635</v>
+        <v>0.0009713131846970094</v>
       </c>
       <c r="T15">
-        <v>0.005560034658253754</v>
+        <v>0.0007147938755697133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>16.62576466666667</v>
+        <v>9.626273333333334</v>
       </c>
       <c r="H16">
-        <v>49.877294</v>
+        <v>28.87882</v>
       </c>
       <c r="I16">
-        <v>0.1237943123496749</v>
+        <v>0.06585095126993876</v>
       </c>
       <c r="J16">
-        <v>0.1334568630839523</v>
+        <v>0.07233263354328205</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N16">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O16">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P16">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q16">
-        <v>122.6509537779544</v>
+        <v>136.4258078542333</v>
       </c>
       <c r="R16">
-        <v>1103.85858400159</v>
+        <v>1227.8322706881</v>
       </c>
       <c r="S16">
-        <v>0.03723206940941711</v>
+        <v>0.02800415151426417</v>
       </c>
       <c r="T16">
-        <v>0.04097426522580899</v>
+        <v>0.03091257738743629</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H17">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I17">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J17">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N17">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O17">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P17">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q17">
-        <v>73.34124572203334</v>
+        <v>103.031487300936</v>
       </c>
       <c r="R17">
-        <v>440.0474743322</v>
+        <v>618.1889238056159</v>
       </c>
       <c r="S17">
-        <v>0.02226355578318115</v>
+        <v>0.0211492929856663</v>
       </c>
       <c r="T17">
-        <v>0.01633417739061489</v>
+        <v>0.01556386275503865</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H18">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I18">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J18">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>14.827407</v>
       </c>
       <c r="O18">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P18">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q18">
-        <v>144.1773439391075</v>
+        <v>194.2293271621185</v>
       </c>
       <c r="R18">
-        <v>865.064063634645</v>
+        <v>1165.375962972711</v>
       </c>
       <c r="S18">
-        <v>0.04376664601014391</v>
+        <v>0.03986949091166967</v>
       </c>
       <c r="T18">
-        <v>0.03211042147463248</v>
+        <v>0.02934014319452857</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H19">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I19">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J19">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N19">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O19">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P19">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q19">
-        <v>239.0055194552316</v>
+        <v>436.1115450795554</v>
       </c>
       <c r="R19">
-        <v>1434.03311673139</v>
+        <v>2616.669270477332</v>
       </c>
       <c r="S19">
-        <v>0.07255279975809242</v>
+        <v>0.08952069976801494</v>
       </c>
       <c r="T19">
-        <v>0.05323005511678916</v>
+        <v>0.06587869797201688</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H20">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I20">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J20">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N20">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O20">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P20">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q20">
-        <v>43.80260617450374</v>
+        <v>19.31728387488525</v>
       </c>
       <c r="R20">
-        <v>175.210424698015</v>
+        <v>77.26913549954099</v>
       </c>
       <c r="S20">
-        <v>0.01329677122898673</v>
+        <v>0.003965262533422866</v>
       </c>
       <c r="T20">
-        <v>0.006503657729306348</v>
+        <v>0.001945370054047572</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>29.1711175</v>
+        <v>39.29803649999999</v>
       </c>
       <c r="H21">
-        <v>58.342235</v>
+        <v>78.59607299999999</v>
       </c>
       <c r="I21">
-        <v>0.2172061558542491</v>
+        <v>0.2688281328564436</v>
       </c>
       <c r="J21">
-        <v>0.156106537544053</v>
+        <v>0.1968591842135532</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N21">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O21">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P21">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q21">
-        <v>215.2000497948291</v>
+        <v>556.9410083165775</v>
       </c>
       <c r="R21">
-        <v>1291.200298768975</v>
+        <v>3341.646049899465</v>
       </c>
       <c r="S21">
-        <v>0.06532638307384492</v>
+        <v>0.1143233866576699</v>
       </c>
       <c r="T21">
-        <v>0.04792822583271009</v>
+        <v>0.08413111023792148</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H22">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I22">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J22">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.514173333333333</v>
+        <v>2.621797333333333</v>
       </c>
       <c r="N22">
-        <v>7.54252</v>
+        <v>7.865392</v>
       </c>
       <c r="O22">
-        <v>0.1024996538225213</v>
+        <v>0.07867217155043885</v>
       </c>
       <c r="P22">
-        <v>0.1046348067646136</v>
+        <v>0.07906089226781998</v>
       </c>
       <c r="Q22">
-        <v>46.86598437697778</v>
+        <v>57.36179959697954</v>
       </c>
       <c r="R22">
-        <v>421.7938593928</v>
+        <v>516.2561963728159</v>
       </c>
       <c r="S22">
-        <v>0.01422669395970022</v>
+        <v>0.01177466750837221</v>
       </c>
       <c r="T22">
-        <v>0.01565661916830578</v>
+        <v>0.01299754860912278</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H23">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I23">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J23">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>14.827407</v>
       </c>
       <c r="O23">
-        <v>0.2014981842389055</v>
+        <v>0.148308476825081</v>
       </c>
       <c r="P23">
-        <v>0.2056955588139348</v>
+        <v>0.1490412718702539</v>
       </c>
       <c r="Q23">
-        <v>92.13114778788668</v>
+        <v>108.1353286494623</v>
       </c>
       <c r="R23">
-        <v>829.1803300909801</v>
+        <v>973.217957845161</v>
       </c>
       <c r="S23">
-        <v>0.02796744080293015</v>
+        <v>0.02219695946957389</v>
       </c>
       <c r="T23">
-        <v>0.03077844866867723</v>
+        <v>0.02450226806620031</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H24">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I24">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J24">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.193224666666666</v>
+        <v>11.09754033333333</v>
       </c>
       <c r="N24">
-        <v>24.579674</v>
+        <v>33.292621</v>
       </c>
       <c r="O24">
-        <v>0.3340273643385006</v>
+        <v>0.3330034651388949</v>
       </c>
       <c r="P24">
-        <v>0.3409854318354075</v>
+        <v>0.3346488416844782</v>
       </c>
       <c r="Q24">
-        <v>152.7275522869289</v>
+        <v>242.8009505260758</v>
       </c>
       <c r="R24">
-        <v>1374.54797058236</v>
+        <v>2185.208554734682</v>
       </c>
       <c r="S24">
-        <v>0.04636215742579409</v>
+        <v>0.04983979727358159</v>
       </c>
       <c r="T24">
-        <v>0.05102201851623956</v>
+        <v>0.05501600680202613</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H25">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I25">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J25">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.5015745</v>
+        <v>0.4915585</v>
       </c>
       <c r="N25">
-        <v>3.003149</v>
+        <v>0.983117</v>
       </c>
       <c r="O25">
-        <v>0.06121728537891535</v>
+        <v>0.01475017696730553</v>
       </c>
       <c r="P25">
-        <v>0.04166166152696217</v>
+        <v>0.009882038584175128</v>
       </c>
       <c r="Q25">
-        <v>27.99041980314334</v>
+        <v>10.75471387841517</v>
       </c>
       <c r="R25">
-        <v>167.94251881886</v>
+        <v>64.52828327049099</v>
       </c>
       <c r="S25">
-        <v>0.008496805127141807</v>
+        <v>0.00220762216241003</v>
       </c>
       <c r="T25">
-        <v>0.006233879419435195</v>
+        <v>0.001624599383724926</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>18.64071333333333</v>
+        <v>21.87880766666666</v>
       </c>
       <c r="H26">
-        <v>55.92214</v>
+        <v>65.63642299999999</v>
       </c>
       <c r="I26">
-        <v>0.1387974830074432</v>
+        <v>0.1496675034681502</v>
       </c>
       <c r="J26">
-        <v>0.149631080253504</v>
+        <v>0.1643992147861598</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.377161666666666</v>
+        <v>14.172235</v>
       </c>
       <c r="N26">
-        <v>22.131485</v>
+        <v>42.516705</v>
       </c>
       <c r="O26">
-        <v>0.3007575122211573</v>
+        <v>0.4252657095182797</v>
       </c>
       <c r="P26">
-        <v>0.3070225410590817</v>
+        <v>0.4273669555932728</v>
       </c>
       <c r="Q26">
-        <v>137.5155558419889</v>
+        <v>310.0716037718016</v>
       </c>
       <c r="R26">
-        <v>1237.6400025779</v>
+        <v>2790.644433946215</v>
       </c>
       <c r="S26">
-        <v>0.04174438569187698</v>
+        <v>0.06364845705421249</v>
       </c>
       <c r="T26">
-        <v>0.04594011448084617</v>
+        <v>0.07025879192508569</v>
       </c>
     </row>
   </sheetData>
